--- a/汽柴煤油2.0/eta/PP-SC拟合残差_SC_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/PP-SC拟合残差_SC_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-833.5</v>
+        <v>-570.5</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-841.7</v>
+        <v>-841.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-642.1</v>
+        <v>-574.2</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>-703.7</v>
       </c>
       <c r="C4" t="n">
-        <v>-669.6</v>
+        <v>-694.2</v>
       </c>
     </row>
     <row r="5">
@@ -523,7 +523,7 @@
         <v>-752.2</v>
       </c>
       <c r="C7" t="n">
-        <v>-751.1</v>
+        <v>-751.3</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         <v>-715</v>
       </c>
       <c r="C8" t="n">
-        <v>-715</v>
+        <v>-714.8</v>
       </c>
     </row>
     <row r="9">
@@ -549,7 +549,7 @@
         <v>-651.6</v>
       </c>
       <c r="C9" t="n">
-        <v>-651.3</v>
+        <v>-651.4</v>
       </c>
     </row>
     <row r="10">
@@ -601,7 +601,7 @@
         <v>135.4</v>
       </c>
       <c r="C13" t="n">
-        <v>134.5</v>
+        <v>134.6</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         <v>183.8</v>
       </c>
       <c r="C14" t="n">
-        <v>183.4</v>
+        <v>183.5</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +627,7 @@
         <v>76.59999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="16">
@@ -666,7 +666,7 @@
         <v>100.1</v>
       </c>
       <c r="C18" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="19">
@@ -679,7 +679,7 @@
         <v>256.4</v>
       </c>
       <c r="C19" t="n">
-        <v>256.1</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20">
@@ -718,7 +718,7 @@
         <v>-111.6</v>
       </c>
       <c r="C22" t="n">
-        <v>-111.6</v>
+        <v>-111.7</v>
       </c>
     </row>
     <row r="23">
@@ -731,7 +731,7 @@
         <v>-52</v>
       </c>
       <c r="C23" t="n">
-        <v>-51.9</v>
+        <v>-51.8</v>
       </c>
     </row>
     <row r="24">
